--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>nº of sims</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>parameter</t>
   </si>
@@ -390,172 +387,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6478708744049072</v>
+        <v>0.6489827483892441</v>
       </c>
       <c r="E3">
-        <v>2.138267933780091E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2.9244079271595E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.7087294077164609</v>
+      </c>
+      <c r="D4">
+        <v>0.646990367770195</v>
+      </c>
+      <c r="E4">
+        <v>2.731052891648926E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.7087530646479417</v>
-      </c>
-      <c r="D4">
-        <v>0.6481529951095581</v>
-      </c>
-      <c r="E4">
-        <v>1.968615596912633E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>-0.105699478094628</v>
+      </c>
+      <c r="D5">
+        <v>-0.0005530303256819025</v>
+      </c>
+      <c r="E5">
+        <v>7.88234048219924E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>-0.1035229614586905</v>
-      </c>
-      <c r="D5">
-        <v>0.001248546235729009</v>
-      </c>
-      <c r="E5">
-        <v>6.593232066656897E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.3354450008465289</v>
+        <v>-0.3254977791559269</v>
       </c>
       <c r="E6">
-        <v>0.03808297621907151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03794091047325767</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1176616675751188</v>
+        <v>0.1167982742482005</v>
       </c>
       <c r="E7">
-        <v>0.002947579664041122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.002933956643042228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2555413026140858</v>
+        <v>0.2522709802401231</v>
       </c>
       <c r="E8">
-        <v>7.172744050187494E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6.191117344771943E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.007251142640212443</v>
+      </c>
+      <c r="D9">
+        <v>0.161154425275725</v>
+      </c>
+      <c r="E9">
+        <v>0.02682390016553198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>0.003276021083153717</v>
-      </c>
-      <c r="D9">
-        <v>0.1581744366835647</v>
-      </c>
-      <c r="E9">
-        <v>0.02664125470263749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>5.18784086007588E-07</v>
+      </c>
+      <c r="D10">
+        <v>-0.003200531431248728</v>
+      </c>
+      <c r="E10">
+        <v>0.001356443954006627</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
         <v>9</v>
-      </c>
-      <c r="C10">
-        <v>-0.0001895634881660495</v>
-      </c>
-      <c r="D10">
-        <v>-0.003713000398379693</v>
-      </c>
-      <c r="E10">
-        <v>0.001377319523069383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>10</v>
       </c>
       <c r="C11">
         <v>-0.005741201080244453</v>
       </c>
       <c r="D11">
-        <v>-0.00581294519765094</v>
+        <v>-0.00580307850426516</v>
       </c>
       <c r="E11">
-        <v>0.0004152551402513529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0004162077645947258</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1.353504906219058</v>
+        <v>1.356604303901077</v>
       </c>
       <c r="D12">
-        <v>0.994611993432045</v>
+        <v>1.003455477952957</v>
       </c>
       <c r="E12">
-        <v>8.503140571452054E-05</v>
+        <v>0.0001094235257298233</v>
       </c>
     </row>
   </sheetData>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,13 +412,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.653232397092348</v>
       </c>
       <c r="D3">
         <v>0.6489827483892441</v>
       </c>
       <c r="E3">
-        <v>2.9244079271595E-05</v>
+        <v>2.9244079271595e-05</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7087294077164609</v>
+        <v>0.494567508279926</v>
       </c>
       <c r="D4">
         <v>0.646990367770195</v>
       </c>
       <c r="E4">
-        <v>2.731052891648926E-05</v>
+        <v>2.731052891648926e-05</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.105699478094628</v>
+        <v>-0.1970354481462937</v>
       </c>
       <c r="D5">
         <v>-0.0005530303256819025</v>
       </c>
       <c r="E5">
-        <v>7.88234048219924E-05</v>
+        <v>7.88234048219924e-05</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -454,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.22964324383684</v>
       </c>
       <c r="D6">
-        <v>-0.3254977791559269</v>
+        <v>-0.3254977791559274</v>
       </c>
       <c r="E6">
         <v>0.03794091047325767</v>
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.08201177580355344</v>
       </c>
       <c r="D7">
         <v>0.1167982742482005</v>
       </c>
       <c r="E7">
-        <v>0.002933956643042228</v>
+        <v>0.002933956643042229</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -482,13 +482,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1776880348197343</v>
       </c>
       <c r="D8">
         <v>0.2522709802401231</v>
       </c>
       <c r="E8">
-        <v>6.191117344771943E-05</v>
+        <v>6.191117344771939e-05</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.007251142640212443</v>
+        <v>0.008220003613187324</v>
       </c>
       <c r="D9">
-        <v>0.161154425275725</v>
+        <v>0.1611544252757249</v>
       </c>
       <c r="E9">
-        <v>0.02682390016553198</v>
+        <v>0.02682390016553195</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -510,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.18784086007588E-07</v>
+        <v>0.0001622621681291687</v>
       </c>
       <c r="D10">
-        <v>-0.003200531431248728</v>
+        <v>-0.003200531431248727</v>
       </c>
       <c r="E10">
         <v>0.001356443954006627</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-0.005741201080244453</v>
+        <v>-0.005741201080244457</v>
       </c>
       <c r="D11">
         <v>-0.00580307850426516</v>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.356604303901077</v>
+        <v>1.440248505367899</v>
       </c>
       <c r="D12">
         <v>1.003455477952957</v>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge-home/Dropbox/Research/DN-early/structural/child-care-welfare/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDE321-F53A-194F-9D80-A3E645BC1271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -407,77 +474,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.653232397092348</v>
+        <v>0.6466192094283626</v>
       </c>
       <c r="D3">
-        <v>0.6489827483892441</v>
+        <v>0.64898274838924408</v>
       </c>
       <c r="E3">
-        <v>2.9244079271595e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>2.9244079271595002E-5</v>
+      </c>
+      <c r="G3">
+        <f>(C3-D3)^2/E3</f>
+        <v>0.19102384341540055</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.494567508279926</v>
+        <v>0.56900511849972035</v>
       </c>
       <c r="D4">
-        <v>0.646990367770195</v>
+        <v>0.64699036777019503</v>
       </c>
       <c r="E4">
-        <v>2.731052891648926e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>2.7310528916489261E-5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="0">(C4-D4)^2/E4</f>
+        <v>222.6869762345074</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.1970354481462937</v>
+        <v>-4.2169407564495373E-3</v>
       </c>
       <c r="D5">
-        <v>-0.0005530303256819025</v>
+        <v>-5.5303032568190249E-4</v>
       </c>
       <c r="E5">
-        <v>7.88234048219924e-05</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>7.8823404821992403E-5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.17030778707166935</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.22964324383684</v>
+        <v>-0.22964324383684001</v>
       </c>
       <c r="D6">
-        <v>-0.3254977791559274</v>
+        <v>-0.32549777915592742</v>
       </c>
       <c r="E6">
-        <v>0.03794091047325767</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>3.794091047325767E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.24216846213309312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.08201177580355344</v>
+        <v>8.2011775803553441E-2</v>
       </c>
       <c r="D7">
         <v>0.1167982742482005</v>
       </c>
       <c r="E7">
-        <v>0.002933956643042229</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>2.933956643042229E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.4124466109303766</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -485,66 +572,92 @@
         <v>0.1776880348197343</v>
       </c>
       <c r="D8">
-        <v>0.2522709802401231</v>
+        <v>0.25227098024012312</v>
       </c>
       <c r="E8">
-        <v>6.191117344771939e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>6.1911173447719387E-5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>89.848333310594143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.008220003613187324</v>
+        <v>0.18219683594874461</v>
       </c>
       <c r="D9">
-        <v>0.1611544252757249</v>
+        <v>0.16115442527572491</v>
       </c>
       <c r="E9">
-        <v>0.02682390016553195</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>2.682390016553195E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.6507034554989097E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.0001622621681291687</v>
+        <v>1.033575917420987E-4</v>
       </c>
       <c r="D10">
-        <v>-0.003200531431248727</v>
+        <v>-3.2005314312487272E-3</v>
       </c>
       <c r="E10">
-        <v>0.001356443954006627</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>1.3564439540066271E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.0472788013075131E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-0.005741201080244457</v>
+        <v>-5.7412010802444574E-3</v>
       </c>
       <c r="D11">
-        <v>-0.00580307850426516</v>
+        <v>-5.8030785042651597E-3</v>
       </c>
       <c r="E11">
-        <v>0.0004162077645947258</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>4.1620776459472578E-4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9.1992892231744555E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.440248505367899</v>
+        <v>1.4489837728960671</v>
       </c>
       <c r="D12">
         <v>1.003455477952957</v>
       </c>
       <c r="E12">
-        <v>0.0001094235257298233</v>
+        <v>1.0942352572982329E-4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1814.0108378980435</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f>SUM(G3:G12)</f>
+        <v>2127.5866576593412</v>
       </c>
     </row>
   </sheetData>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge-home/Dropbox/Research/DN-early/structural/child-care-welfare/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDE321-F53A-194F-9D80-A3E645BC1271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,16 +37,16 @@
     <t>sigma^2_{varepsilon}</t>
   </si>
   <si>
-    <t>alpha_1</t>
-  </si>
-  <si>
-    <t>beta_1</t>
-  </si>
-  <si>
-    <t>gamma_1</t>
-  </si>
-  <si>
-    <t>var score</t>
+    <t>beta1_td</t>
+  </si>
+  <si>
+    <t>beta1_tz</t>
+  </si>
+  <si>
+    <t>beta1_dz</t>
+  </si>
+  <si>
+    <t>resid var score</t>
   </si>
   <si>
     <t>sim</t>
@@ -78,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +99,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +177,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,20 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -474,190 +407,144 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6466192094283626</v>
+        <v>0.6459331584154158</v>
       </c>
       <c r="D3">
-        <v>0.64898274838924408</v>
+        <v>0.6477891474962234</v>
       </c>
       <c r="E3">
-        <v>2.9244079271595002E-5</v>
-      </c>
-      <c r="G3">
-        <f>(C3-D3)^2/E3</f>
-        <v>0.19102384341540055</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.987539742889733e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.56900511849972035</v>
+        <v>0.5686932771301991</v>
       </c>
       <c r="D4">
-        <v>0.64699036777019503</v>
+        <v>0.6474272519350052</v>
       </c>
       <c r="E4">
-        <v>2.7310528916489261E-5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G12" si="0">(C4-D4)^2/E4</f>
-        <v>222.6869762345074</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.679572380768059e-05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-4.2169407564495373E-3</v>
+        <v>-0.004762919091807542</v>
       </c>
       <c r="D5">
-        <v>-5.5303032568190249E-4</v>
+        <v>0.004535745471366681</v>
       </c>
       <c r="E5">
-        <v>7.8823404821992403E-5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.17030778707166935</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>8.255132463054791e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.22964324383684001</v>
+        <v>-0.1969974170554449</v>
       </c>
       <c r="D6">
-        <v>-0.32549777915592742</v>
+        <v>-0.3330443065773845</v>
       </c>
       <c r="E6">
-        <v>3.794091047325767E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.24216846213309312</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.0376381331599351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.2011775803553441E-2</v>
+        <v>0.07028126911280778</v>
       </c>
       <c r="D7">
-        <v>0.1167982742482005</v>
+        <v>0.1174455500094394</v>
       </c>
       <c r="E7">
-        <v>2.933956643042229E-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.4124466109303766</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.002909150044701578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1776880348197343</v>
+        <v>0.1523710074302076</v>
       </c>
       <c r="D8">
-        <v>0.25227098024012312</v>
+        <v>0.2505834270102912</v>
       </c>
       <c r="E8">
-        <v>6.1911173447719387E-5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>89.848333310594143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5.168099690416847e-05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.18219683594874461</v>
+        <v>0.1856900061531385</v>
       </c>
       <c r="D9">
-        <v>0.16115442527572491</v>
+        <v>0.1532139450442513</v>
       </c>
       <c r="E9">
-        <v>2.682390016553195E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.6507034554989097E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.02669012351160469</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.033575917420987E-4</v>
+        <v>-0.000160400273378614</v>
       </c>
       <c r="D10">
-        <v>-3.2005314312487272E-3</v>
+        <v>-0.003125279552280412</v>
       </c>
       <c r="E10">
-        <v>1.3564439540066271E-3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>8.0472788013075131E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.001350202980362661</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-5.7412010802444574E-3</v>
+        <v>-0.005741201080244457</v>
       </c>
       <c r="D11">
-        <v>-5.8030785042651597E-3</v>
+        <v>-0.0055716239958156</v>
       </c>
       <c r="E11">
-        <v>4.1620776459472578E-4</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9.1992892231744555E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.0004145954896340934</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.4489837728960671</v>
+        <v>1.440100937578702</v>
       </c>
       <c r="D12">
-        <v>1.003455477952957</v>
+        <v>0.9952412724494935</v>
       </c>
       <c r="E12">
-        <v>1.0942352572982329E-4</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1814.0108378980435</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <f>SUM(G3:G12)</f>
-        <v>2127.5866576593412</v>
+        <v>0.0001067675603138048</v>
       </c>
     </row>
   </sheetData>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6459331584154158</v>
+        <v>0.8191621144995483</v>
       </c>
       <c r="D3">
         <v>0.6477891474962234</v>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5686932771301991</v>
+        <v>0.5990300658092822</v>
       </c>
       <c r="D4">
         <v>0.6474272519350052</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.004762919091807542</v>
+        <v>-0.05884812859031883</v>
       </c>
       <c r="D5">
         <v>0.004535745471366681</v>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.1969974170554449</v>
+        <v>-0.2477909811474888</v>
       </c>
       <c r="D6">
         <v>-0.3330443065773845</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.07028126911280778</v>
+        <v>0.08798946409716052</v>
       </c>
       <c r="D7">
         <v>0.1174455500094394</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1523710074302076</v>
+        <v>0.1903335571888334</v>
       </c>
       <c r="D8">
         <v>0.2505834270102912</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1856900061531385</v>
+        <v>0.08731620729673588</v>
       </c>
       <c r="D9">
         <v>0.1532139450442513</v>
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-0.000160400273378614</v>
+        <v>-0.0001454401703124805</v>
       </c>
       <c r="D10">
         <v>-0.003125279552280412</v>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.440100937578702</v>
+        <v>1.386943624147526</v>
       </c>
       <c r="D12">
         <v>0.9952412724494935</v>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,13 +412,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8191621144995483</v>
+        <v>0.6750737666136178</v>
       </c>
       <c r="D3">
         <v>0.6477891474962234</v>
       </c>
       <c r="E3">
-        <v>1.987539742889733e-05</v>
+        <v>0.003030525623108707</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5990300658092822</v>
+        <v>0.6363529614176954</v>
       </c>
       <c r="D4">
         <v>0.6474272519350052</v>
       </c>
       <c r="E4">
-        <v>1.679572380768059e-05</v>
+        <v>0.002560948606935951</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.05884812859031883</v>
+        <v>0.1097145765582836</v>
       </c>
       <c r="D5">
         <v>0.004535745471366681</v>
       </c>
       <c r="E5">
-        <v>8.255132463054791e-05</v>
+        <v>0.01258711456761647</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.2477909811474888</v>
+        <v>-0.2507780460882012</v>
       </c>
       <c r="D6">
         <v>-0.3330443065773845</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.08798946409716052</v>
+        <v>0.0961140756678302</v>
       </c>
       <c r="D7">
         <v>0.1174455500094394</v>
@@ -482,13 +482,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1903335571888334</v>
+        <v>0.1627879618544771</v>
       </c>
       <c r="D8">
         <v>0.2505834270102912</v>
       </c>
       <c r="E8">
-        <v>5.168099690416847e-05</v>
+        <v>0.007880123449414392</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.08731620729673588</v>
+        <v>0.2529853398853936</v>
       </c>
       <c r="D9">
         <v>0.1532139450442513</v>
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-0.0001454401703124805</v>
+        <v>-7.968197710167701e-06</v>
       </c>
       <c r="D10">
         <v>-0.003125279552280412</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-0.005741201080244457</v>
+        <v>-0.005741201080244458</v>
       </c>
       <c r="D11">
         <v>-0.0055716239958156</v>
@@ -538,13 +538,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.386943624147526</v>
+        <v>1.524337807788891</v>
       </c>
       <c r="D12">
         <v>0.9952412724494935</v>
       </c>
       <c r="E12">
-        <v>0.0001067675603138048</v>
+        <v>0.01627951483261187</v>
       </c>
     </row>
   </sheetData>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6750737666136178</v>
+        <v>0.6737180093767475</v>
       </c>
       <c r="D3">
         <v>0.6477891474962234</v>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6363529614176954</v>
+        <v>0.6286902662480106</v>
       </c>
       <c r="D4">
         <v>0.6474272519350052</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.1097145765582836</v>
+        <v>0.004058353923558117</v>
       </c>
       <c r="D5">
         <v>0.004535745471366681</v>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.2507780460882012</v>
+        <v>-0.2632373840144894</v>
       </c>
       <c r="D6">
         <v>-0.3330443065773845</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.0961140756678302</v>
+        <v>0.1006674009263249</v>
       </c>
       <c r="D7">
         <v>0.1174455500094394</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1627879618544771</v>
+        <v>0.2276252568795717</v>
       </c>
       <c r="D8">
         <v>0.2505834270102912</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.2529853398853936</v>
+        <v>0.2467195013920814</v>
       </c>
       <c r="D9">
         <v>0.1532139450442513</v>
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-7.968197710167701e-06</v>
+        <v>-9.903465337404857e-07</v>
       </c>
       <c r="D10">
         <v>-0.003125279552280412</v>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.524337807788891</v>
+        <v>1.139795689901058</v>
       </c>
       <c r="D12">
         <v>0.9952412724494935</v>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6737180093767475</v>
+        <v>0.6543214761925243</v>
       </c>
       <c r="D3">
         <v>0.6477891474962234</v>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6286902662480106</v>
+        <v>0.6298387027399028</v>
       </c>
       <c r="D4">
         <v>0.6474272519350052</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.004058353923558117</v>
+        <v>-0.008766282108779014</v>
       </c>
       <c r="D5">
         <v>0.004535745471366681</v>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.2632373840144894</v>
+        <v>-0.2671529130864511</v>
       </c>
       <c r="D6">
         <v>-0.3330443065773845</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.1006674009263249</v>
+        <v>0.1102438836820448</v>
       </c>
       <c r="D7">
         <v>0.1174455500094394</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.2276252568795717</v>
+        <v>0.2348956438264082</v>
       </c>
       <c r="D8">
         <v>0.2505834270102912</v>
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.2467195013920814</v>
+        <v>0.2732206680779136</v>
       </c>
       <c r="D9">
         <v>0.1532139450442513</v>
       </c>
       <c r="E9">
-        <v>0.02669012351160469</v>
+        <v>0.02635034095594246</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -510,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-9.903465337404857e-07</v>
+        <v>1.519112519150018e-05</v>
       </c>
       <c r="D10">
         <v>-0.003125279552280412</v>
       </c>
       <c r="E10">
-        <v>0.001350202980362661</v>
+        <v>0.00122968786718107</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -530,7 +530,7 @@
         <v>-0.0055716239958156</v>
       </c>
       <c r="E11">
-        <v>0.0004145954896340934</v>
+        <v>0.0006230604009476965</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.139795689901058</v>
+        <v>1.057730686107487</v>
       </c>
       <c r="D12">
         <v>0.9952412724494935</v>

--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -412,13 +412,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6543214761925243</v>
+        <v>0.6484124048346166</v>
       </c>
       <c r="D3">
-        <v>0.6477891474962234</v>
+        <v>0.6485325399041176</v>
       </c>
       <c r="E3">
-        <v>0.003030525623108707</v>
+        <v>0.003181596496692633</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6298387027399028</v>
+        <v>0.646778786184352</v>
       </c>
       <c r="D4">
-        <v>0.6474272519350052</v>
+        <v>0.6468222245573998</v>
       </c>
       <c r="E4">
-        <v>0.002560948606935951</v>
+        <v>0.003265908404891361</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.008766282108779014</v>
+        <v>-1.351269626357958e-05</v>
       </c>
       <c r="D5">
-        <v>0.004535745471366681</v>
+        <v>-0.0005632317061672438</v>
       </c>
       <c r="E5">
-        <v>0.01258711456761647</v>
+        <v>0.01225159906385644</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -454,13 +454,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.2671529130864511</v>
+        <v>-0.3268177256602222</v>
       </c>
       <c r="D6">
-        <v>-0.3330443065773845</v>
+        <v>-0.3257549035957301</v>
       </c>
       <c r="E6">
-        <v>0.0376381331599351</v>
+        <v>0.03803460886515738</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.1102438836820448</v>
+        <v>0.1168264632247657</v>
       </c>
       <c r="D7">
-        <v>0.1174455500094394</v>
+        <v>0.1168200507359438</v>
       </c>
       <c r="E7">
-        <v>0.002909150044701578</v>
+        <v>0.002939301610035022</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -482,13 +482,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.2348956438264082</v>
+        <v>0.2180372519918392</v>
       </c>
       <c r="D8">
-        <v>0.2505834270102912</v>
+        <v>0.2543810166062236</v>
       </c>
       <c r="E8">
-        <v>0.007880123449414392</v>
+        <v>0.00903425704625044</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.2732206680779136</v>
+        <v>0.1472354918385177</v>
       </c>
       <c r="D9">
-        <v>0.1532139450442513</v>
+        <v>0.1575742356782241</v>
       </c>
       <c r="E9">
-        <v>0.02635034095594246</v>
+        <v>0.0270659798629596</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -510,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.519112519150018e-05</v>
+        <v>-7.837484988073776e-05</v>
       </c>
       <c r="D10">
-        <v>-0.003125279552280412</v>
+        <v>-0.003534927501057789</v>
       </c>
       <c r="E10">
-        <v>0.00122968786718107</v>
+        <v>0.001471562008073893</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -527,10 +527,10 @@
         <v>-0.005741201080244458</v>
       </c>
       <c r="D11">
-        <v>-0.0055716239958156</v>
+        <v>-0.005772223045683054</v>
       </c>
       <c r="E11">
-        <v>0.0006230604009476965</v>
+        <v>0.0005482131574042247</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -538,13 +538,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.057730686107487</v>
+        <v>1.011567142699747</v>
       </c>
       <c r="D12">
-        <v>0.9952412724494935</v>
+        <v>1.001135367751121</v>
       </c>
       <c r="E12">
-        <v>0.01627951483261187</v>
+        <v>0.0158081707410667</v>
       </c>
     </row>
   </sheetData>
